--- a/Data/aearep-1384/candidatepackages.xlsx
+++ b/Data/aearep-1384/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,27 +22,24 @@
     <t>outreg2</t>
   </si>
   <si>
+    <t>reghdfe</t>
+  </si>
+  <si>
     <t>filelist</t>
   </si>
   <si>
-    <t>reghdfe</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>carryforward</t>
   </si>
   <si>
+    <t>geodist</t>
+  </si>
+  <si>
     <t>gtools</t>
   </si>
   <si>
-    <t>geodist</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
@@ -55,75 +52,63 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
   </si>
   <si>
     <t>sq</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
+    <t>reset</t>
+  </si>
+  <si>
     <t>levels</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>reset</t>
-  </si>
-  <si>
     <t>sumstats</t>
   </si>
   <si>
     <t>equation</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>ira</t>
+  </si>
+  <si>
+    <t>reformat</t>
+  </si>
+  <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>er</t>
   </si>
   <si>
     <t>sortobs</t>
   </si>
   <si>
-    <t>reformat</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>ira</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>adjust</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
     <t>usd</t>
   </si>
   <si>
@@ -145,27 +130,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1384</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1384/120766</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1384/120766/scripts</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1384/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>_run_all.do</t>
   </si>
   <si>
@@ -218,9 +191,6 @@
   </si>
   <si>
     <t>9.counterfactual_data.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -264,7 +234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -272,13 +242,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -286,7 +256,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -298,7 +268,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -310,7 +280,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -322,7 +292,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -334,7 +304,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -346,7 +316,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -358,7 +328,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -370,7 +340,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -382,7 +352,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -394,7 +364,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -406,7 +376,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -418,10 +388,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D13"/>
     </row>
@@ -430,10 +400,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D14"/>
     </row>
@@ -445,7 +415,7 @@
         <v>563</v>
       </c>
       <c r="C15">
-        <v>0.18667109310626984</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D15"/>
     </row>
@@ -454,10 +424,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C16">
-        <v>0.18733422458171844</v>
+        <v>0.18975207209587097</v>
       </c>
       <c r="D16"/>
     </row>
@@ -466,10 +436,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>566</v>
+        <v>706</v>
       </c>
       <c r="C17">
-        <v>0.18766577541828156</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D17"/>
     </row>
@@ -478,10 +448,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="C18">
-        <v>0.23010610044002533</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D18"/>
     </row>
@@ -490,10 +460,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>812</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.26842975616455078</v>
       </c>
       <c r="D19"/>
     </row>
@@ -502,10 +472,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>805</v>
+        <v>893</v>
       </c>
       <c r="C20">
-        <v>0.26690980792045593</v>
+        <v>0.29520660638809204</v>
       </c>
       <c r="D20"/>
     </row>
@@ -514,10 +484,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>827</v>
+        <v>955</v>
       </c>
       <c r="C21">
-        <v>0.27420425415039062</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D21"/>
     </row>
@@ -526,10 +496,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>936</v>
+        <v>998</v>
       </c>
       <c r="C22">
-        <v>0.31034481525421143</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D22"/>
     </row>
@@ -538,10 +508,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>985</v>
+        <v>1295</v>
       </c>
       <c r="C23">
-        <v>0.32659152150154114</v>
+        <v>0.42809918522834778</v>
       </c>
       <c r="D23"/>
     </row>
@@ -550,10 +520,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1124</v>
+        <v>1303</v>
       </c>
       <c r="C24">
-        <v>0.37267905473709106</v>
+        <v>0.43074381351470947</v>
       </c>
       <c r="D24"/>
     </row>
@@ -562,10 +532,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1133</v>
+        <v>1306</v>
       </c>
       <c r="C25">
-        <v>0.37566313147544861</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D25"/>
     </row>
@@ -574,10 +544,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1271</v>
+        <v>1497</v>
       </c>
       <c r="C26">
-        <v>0.42141908407211304</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D26"/>
     </row>
@@ -586,10 +556,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1289</v>
+        <v>1658</v>
       </c>
       <c r="C27">
-        <v>0.42738726735115051</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D27"/>
     </row>
@@ -598,10 +568,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1472</v>
+        <v>1796</v>
       </c>
       <c r="C28">
-        <v>0.48806366324424744</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D28"/>
     </row>
@@ -610,10 +580,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1474</v>
+        <v>1838</v>
       </c>
       <c r="C29">
-        <v>0.48872679471969604</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D29"/>
     </row>
@@ -622,10 +592,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1660</v>
+        <v>1904</v>
       </c>
       <c r="C30">
-        <v>0.55039787292480469</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D30"/>
     </row>
@@ -634,10 +604,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1753</v>
+        <v>1933</v>
       </c>
       <c r="C31">
-        <v>0.5812334418296814</v>
+        <v>0.6390082836151123</v>
       </c>
       <c r="D31"/>
     </row>
@@ -646,10 +616,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1793</v>
+        <v>2008</v>
       </c>
       <c r="C32">
-        <v>0.59449601173400879</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D32"/>
     </row>
@@ -658,10 +628,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1798</v>
+        <v>2016</v>
       </c>
       <c r="C33">
-        <v>0.5961538553237915</v>
+        <v>0.6664462685585022</v>
       </c>
       <c r="D33"/>
     </row>
@@ -670,72 +640,12 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1817</v>
+        <v>2436</v>
       </c>
       <c r="C34">
-        <v>0.60245358943939209</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1859</v>
-      </c>
-      <c r="C35">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2000</v>
-      </c>
-      <c r="C36">
-        <v>0.66312998533248901</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2217</v>
-      </c>
-      <c r="C37">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2232</v>
-      </c>
-      <c r="C38">
-        <v>0.74005305767059326</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2424</v>
-      </c>
-      <c r="C39">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D39"/>
     </row>
   </sheetData>
 </worksheet>
@@ -743,183 +653,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
